--- a/assets/attachedStokePrice/FO-18-10.xlsx
+++ b/assets/attachedStokePrice/FO-18-10.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cicirec\assets\attachedStokePrice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar.rodriguez\Downloads\FACTURAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="eQPFnNJ+FddCmDSrmLwHq1DmmZa5qM+kA/pMnPDmK8kk0GpPjKceqXiHdgmqUSrJIUA+cndsU8sLs/YyDXwEvQ==" workbookSaltValue="hqDOgfIPAT42YLpgzU+Vtg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="9RLxvrXT2zWz2XpaOMRAL0UtdfPxAAP2mnaO3Tf3DU9fCSMah68D9p2NXl0CxsL6b+Key2SLbs2U89QdFfFsMg==" workbookSaltValue="QMA+twZ6YkRMOKKlbnzvCw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="FO-18-10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>CENTRO INTEGRAL DE REHABILITACIÓN COLOMBIA-CIREC CONFIGURACIÓN DE PRÓTESIS MIEMBRO SUPERIOR GESTIÓN DE OPERACIONES</t>
   </si>
@@ -348,17 +348,27 @@
     <t>Nombre del Técnico</t>
   </si>
   <si>
-    <t>Firma del Técnico Encargado</t>
-  </si>
-  <si>
-    <t>Fecha</t>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +402,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,9 +575,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -643,33 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,8 +766,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1064,13 +1088,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>71577</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>130435</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>195060</xdr:colOff>
+      <xdr:colOff>630297</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>93508</xdr:rowOff>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1087,8 +1111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71577" y="330460"/>
-          <a:ext cx="1585571" cy="563148"/>
+          <a:off x="71577" y="304801"/>
+          <a:ext cx="1955720" cy="736600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1106,7 +1130,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>760683</xdr:colOff>
+      <xdr:colOff>730203</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>132920</xdr:rowOff>
     </xdr:to>
@@ -1138,15 +1162,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9292</xdr:colOff>
+      <xdr:colOff>98611</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>37170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>761790</xdr:colOff>
+      <xdr:colOff>731310</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>102305</xdr:rowOff>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1163,8 +1187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4519380" y="8238195"/>
-          <a:ext cx="6086498" cy="4065635"/>
+          <a:off x="4437529" y="8123335"/>
+          <a:ext cx="5769475" cy="4014877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,13 +1202,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1242,13 +1266,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1306,13 +1330,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1434,13 +1458,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>547688</xdr:colOff>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1498,13 +1522,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1562,13 +1586,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1626,13 +1650,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1690,13 +1714,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1882,13 +1906,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>547688</xdr:colOff>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1946,13 +1970,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>547688</xdr:colOff>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2010,13 +2034,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2074,13 +2098,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2138,13 +2162,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2586,13 +2610,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2650,13 +2674,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2714,13 +2738,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2778,13 +2802,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2842,13 +2866,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2906,13 +2930,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2970,13 +2994,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>519113</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>709613</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3226,13 +3250,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3290,13 +3314,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3354,13 +3378,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3418,13 +3442,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3482,13 +3506,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3546,13 +3570,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3610,13 +3634,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3674,13 +3698,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3738,13 +3762,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>509588</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>700088</xdr:colOff>
+          <xdr:colOff>701040</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4378,13 +4402,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4442,13 +4466,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4506,13 +4530,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4570,13 +4594,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4634,13 +4658,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4698,13 +4722,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4762,13 +4786,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4826,13 +4850,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4890,13 +4914,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4954,13 +4978,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5018,13 +5042,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5082,13 +5106,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>366713</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5146,13 +5170,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5210,15 +5234,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
-          <xdr:row>70</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>556260</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5274,13 +5298,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5338,13 +5362,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>357188</xdr:colOff>
+          <xdr:colOff>358140</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>557213</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5668,93 +5692,93 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="1" customWidth="1"/>
     <col min="2" max="5" width="10.6640625" style="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5762,65 +5786,65 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A7" s="66" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="57" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
@@ -5838,27 +5862,29 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A11" s="5"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
@@ -5867,27 +5893,27 @@
         <v>21</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66" t="s">
+      <c r="G11" s="57"/>
+      <c r="H11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66" t="s">
+      <c r="I11" s="57"/>
+      <c r="J11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A12" s="57" t="s">
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
@@ -5901,12 +5927,12 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
@@ -5920,104 +5946,104 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="66" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A15" s="56" t="s">
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A16" s="56" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A17" s="57" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="56" t="s">
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="8"/>
       <c r="F19" s="4" t="s">
         <v>45</v>
@@ -6034,13 +6060,13 @@
       <c r="J19" s="18"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6049,13 +6075,13 @@
       <c r="J20" s="21"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="56" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="8"/>
       <c r="F21" s="4" t="s">
         <v>51</v>
@@ -6072,13 +6098,13 @@
       <c r="J21" s="21"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="56" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6087,13 +6113,13 @@
       <c r="J22" s="21"/>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="8"/>
       <c r="F23" s="4" t="s">
         <v>55</v>
@@ -6110,13 +6136,13 @@
       <c r="J23" s="21"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="53" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -6125,50 +6151,50 @@
       <c r="J24" s="21"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="58" t="s">
+      <c r="I25" s="49" t="s">
         <v>64</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="21"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="4" t="s">
         <v>66</v>
       </c>
@@ -6184,12 +6210,12 @@
       <c r="J27" s="21"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -6197,14 +6223,14 @@
       <c r="J28" s="21"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="4" t="s">
         <v>71</v>
       </c>
@@ -6220,12 +6246,12 @@
       <c r="J29" s="21"/>
       <c r="K29" s="23"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -6233,14 +6259,14 @@
       <c r="J30" s="21"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="4" t="s">
         <v>75</v>
       </c>
@@ -6256,12 +6282,12 @@
       <c r="J31" s="21"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -6269,46 +6295,46 @@
       <c r="J32" s="24"/>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="57" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="48" t="s">
         <v>78</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="57"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="6" t="s">
         <v>47</v>
       </c>
@@ -6318,31 +6344,31 @@
       <c r="H35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="4" t="s">
         <v>84</v>
       </c>
@@ -6352,31 +6378,31 @@
       <c r="H37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="52"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="43"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="4" t="s">
         <v>46</v>
       </c>
@@ -6386,307 +6412,311 @@
       <c r="H39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I39" s="56" t="s">
+      <c r="I39" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A60" s="37" t="s">
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="43"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="38">
+        <v>52</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="38">
+        <v>63</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="9" t="s">
         <v>92</v>
       </c>
@@ -6697,15 +6727,17 @@
       <c r="H62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="38">
+        <v>21</v>
+      </c>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="9" t="s">
         <v>94</v>
       </c>
@@ -6716,15 +6748,17 @@
       <c r="H63" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="38">
+        <v>23</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="9" t="s">
         <v>96</v>
       </c>
@@ -6732,18 +6766,20 @@
         <v>94</v>
       </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="H64" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="38">
+        <v>65</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="9" t="s">
         <v>97</v>
       </c>
@@ -6751,190 +6787,196 @@
         <v>96</v>
       </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="48" t="s">
+      <c r="H65" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="49" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A67" s="48"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
+      <c r="H66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="39"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A68" s="48"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
+      <c r="H67" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="39"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="9" t="s">
         <v>100</v>
       </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A69" s="48" t="s">
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="9" t="s">
         <v>102</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A70" s="48"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="37" t="s">
+      <c r="H69" s="61"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="63"/>
+    </row>
+    <row r="70" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A71" s="48"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A72" s="39" t="s">
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A73" s="39"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B72" s="31"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="41" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="43"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A77" s="44"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="46"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="34"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="35"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="37"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6947,7 +6989,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -6960,7 +7002,7 @@
       <c r="J79" s="22"/>
       <c r="K79" s="23"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -6973,7 +7015,7 @@
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -6986,7 +7028,7 @@
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -6999,7 +7041,7 @@
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -7012,7 +7054,7 @@
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -7025,7 +7067,7 @@
       <c r="J84" s="25"/>
       <c r="K84" s="26"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>33</v>
       </c>
@@ -7040,7 +7082,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="14"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -7053,7 +7095,7 @@
       <c r="J86" s="16"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -7066,7 +7108,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -7079,7 +7121,7 @@
       <c r="J88" s="22"/>
       <c r="K88" s="23"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -7092,7 +7134,7 @@
       <c r="J89" s="22"/>
       <c r="K89" s="23"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -7105,7 +7147,7 @@
       <c r="J90" s="22"/>
       <c r="K90" s="23"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -7118,7 +7160,7 @@
       <c r="J91" s="22"/>
       <c r="K91" s="23"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -7131,7 +7173,7 @@
       <c r="J92" s="22"/>
       <c r="K92" s="23"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -7144,7 +7186,7 @@
       <c r="J93" s="22"/>
       <c r="K93" s="23"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -7157,7 +7199,7 @@
       <c r="J94" s="22"/>
       <c r="K94" s="23"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -7170,7 +7212,7 @@
       <c r="J95" s="22"/>
       <c r="K95" s="23"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -7183,7 +7225,7 @@
       <c r="J96" s="22"/>
       <c r="K96" s="23"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="24"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -7196,80 +7238,76 @@
       <c r="J97" s="25"/>
       <c r="K97" s="26"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A98" s="27"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="29"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A99" s="30"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="32"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A100" s="30"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="32"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A101" s="33"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="35"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A102" s="36" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="23"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="23"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="26"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="68"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0bXTA1p0ePEWkdZBlPgMTjrwvwlHpyJTs06wB+KEDB86KAU60TjbQLRkUSGU1V5LH/hn1cG2HNuBCjUL2qCd0Q==" saltValue="UK1QCakoJXfcr62RBhJeiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="91">
+  <sheetProtection algorithmName="SHA-512" hashValue="OV2lvcAjRdoWYbQzf344C8D8XN39ujpAhemJU+qshaIqdna5cxNzI7mkI1OD7bRokFB5T4nep5OAFYLH+j0KqQ==" saltValue="9Sfgg0lQd92jZpykhPbSnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="90">
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="C1:I5"/>
     <mergeCell ref="J1:J2"/>
@@ -7338,29 +7376,28 @@
     <mergeCell ref="I33:K34"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="A64:D64"/>
-    <mergeCell ref="H64:K65"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="C66:E67"/>
-    <mergeCell ref="H66:K69"/>
     <mergeCell ref="C68:E75"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="H67:K68"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="H69:K69"/>
     <mergeCell ref="F70:K70"/>
     <mergeCell ref="F71:K75"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="A76:K77"/>
     <mergeCell ref="A78:K84"/>
+    <mergeCell ref="A98:K101"/>
+    <mergeCell ref="A102:K102"/>
     <mergeCell ref="A85:K86"/>
     <mergeCell ref="A87:K97"/>
-    <mergeCell ref="A98:C101"/>
-    <mergeCell ref="D98:F101"/>
-    <mergeCell ref="G98:K101"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D6">
@@ -7371,25 +7408,29 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="75" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Check Box 1">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>371475</xdr:colOff>
+                    <xdr:colOff>373380</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7400,18 +7441,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Check Box 2">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>371475</xdr:colOff>
+                    <xdr:colOff>373380</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7422,18 +7463,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Check Box 3">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7444,7 +7485,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId6" name="Check Box 4">
+            <control shapeId="1028" r:id="rId7" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7466,18 +7507,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId7" name="Check Box 5">
+            <control shapeId="1029" r:id="rId8" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>547688</xdr:colOff>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7488,18 +7529,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId8" name="Check Box 6">
+            <control shapeId="1030" r:id="rId9" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7510,18 +7551,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7532,18 +7573,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7554,18 +7595,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId11" name="Check Box 9">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7576,7 +7617,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId12" name="Check Box 10">
+            <control shapeId="1034" r:id="rId13" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7598,7 +7639,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId13" name="Check Box 11">
+            <control shapeId="1035" r:id="rId14" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7620,18 +7661,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId14" name="Check Box 12">
+            <control shapeId="1036" r:id="rId15" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>547688</xdr:colOff>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7642,18 +7683,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId15" name="Check Box 13">
+            <control shapeId="1037" r:id="rId16" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>547688</xdr:colOff>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7664,18 +7705,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId16" name="Check Box 14">
+            <control shapeId="1038" r:id="rId17" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7686,18 +7727,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId17" name="Check Box 15">
+            <control shapeId="1039" r:id="rId18" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7708,18 +7749,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId18" name="Check Box 16">
+            <control shapeId="1040" r:id="rId19" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7730,7 +7771,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId19" name="Check Box 17">
+            <control shapeId="1041" r:id="rId20" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7752,7 +7793,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId20" name="Check Box 18">
+            <control shapeId="1042" r:id="rId21" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7774,7 +7815,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId21" name="Check Box 19">
+            <control shapeId="1043" r:id="rId22" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7796,7 +7837,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId22" name="Check Box 20">
+            <control shapeId="1044" r:id="rId23" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7818,7 +7859,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId23" name="Check Box 21">
+            <control shapeId="1045" r:id="rId24" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7840,7 +7881,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId24" name="Check Box 22">
+            <control shapeId="1046" r:id="rId25" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -7862,18 +7903,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId25" name="Check Box 23">
+            <control shapeId="1047" r:id="rId26" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7884,18 +7925,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId26" name="Check Box 24">
+            <control shapeId="1048" r:id="rId27" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7906,18 +7947,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId27" name="Check Box 25">
+            <control shapeId="1049" r:id="rId28" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7928,18 +7969,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId28" name="Check Box 26">
+            <control shapeId="1050" r:id="rId29" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7950,18 +7991,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId29" name="Check Box 27">
+            <control shapeId="1051" r:id="rId30" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7972,18 +8013,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId30" name="Check Box 28">
+            <control shapeId="1052" r:id="rId31" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7994,18 +8035,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId31" name="Check Box 29">
+            <control shapeId="1053" r:id="rId32" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>519113</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>709613</xdr:colOff>
+                    <xdr:colOff>708660</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8016,7 +8057,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId32" name="Check Box 30">
+            <control shapeId="1054" r:id="rId33" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8038,7 +8079,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId33" name="Check Box 31">
+            <control shapeId="1055" r:id="rId34" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8060,7 +8101,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId34" name="Check Box 32">
+            <control shapeId="1056" r:id="rId35" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8082,18 +8123,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+            <control shapeId="1057" r:id="rId36" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8104,18 +8145,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+            <control shapeId="1058" r:id="rId37" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8126,18 +8167,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+            <control shapeId="1059" r:id="rId38" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8148,18 +8189,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+            <control shapeId="1060" r:id="rId39" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8170,18 +8211,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+            <control shapeId="1061" r:id="rId40" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8192,18 +8233,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+            <control shapeId="1062" r:id="rId41" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8214,18 +8255,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+            <control shapeId="1063" r:id="rId42" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8236,18 +8277,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+            <control shapeId="1064" r:id="rId43" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8258,18 +8299,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+            <control shapeId="1065" r:id="rId44" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>509588</xdr:colOff>
+                    <xdr:colOff>510540</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>700088</xdr:colOff>
+                    <xdr:colOff>701040</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8280,7 +8321,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+            <control shapeId="1066" r:id="rId45" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8302,7 +8343,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+            <control shapeId="1067" r:id="rId46" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8324,7 +8365,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+            <control shapeId="1068" r:id="rId47" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8346,7 +8387,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+            <control shapeId="1069" r:id="rId48" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8368,7 +8409,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+            <control shapeId="1070" r:id="rId49" name="Check Box 46">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8390,7 +8431,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+            <control shapeId="1071" r:id="rId50" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8412,7 +8453,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+            <control shapeId="1072" r:id="rId51" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8434,7 +8475,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId51" name="Check Box 49">
+            <control shapeId="1073" r:id="rId52" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8456,7 +8497,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId52" name="Check Box 50">
+            <control shapeId="1074" r:id="rId53" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -8478,18 +8519,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId53" name="Check Box 51">
+            <control shapeId="1075" r:id="rId54" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8500,18 +8541,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId54" name="Check Box 52">
+            <control shapeId="1076" r:id="rId55" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8522,18 +8563,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId55" name="Check Box 53">
+            <control shapeId="1077" r:id="rId56" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8544,18 +8585,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId56" name="Check Box 54">
+            <control shapeId="1078" r:id="rId57" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8566,18 +8607,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId57" name="Check Box 55">
+            <control shapeId="1079" r:id="rId58" name="Check Box 55">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8588,18 +8629,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId58" name="Check Box 56">
+            <control shapeId="1080" r:id="rId59" name="Check Box 56">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8610,18 +8651,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId59" name="Check Box 57">
+            <control shapeId="1081" r:id="rId60" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8632,18 +8673,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId60" name="Check Box 58">
+            <control shapeId="1082" r:id="rId61" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8654,18 +8695,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId61" name="Check Box 59">
+            <control shapeId="1083" r:id="rId62" name="Check Box 59">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8676,18 +8717,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId62" name="Check Box 60">
+            <control shapeId="1084" r:id="rId63" name="Check Box 60">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8698,18 +8739,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId63" name="Check Box 61">
+            <control shapeId="1085" r:id="rId64" name="Check Box 61">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8720,18 +8761,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId64" name="Check Box 62">
+            <control shapeId="1086" r:id="rId65" name="Check Box 62">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>366713</xdr:colOff>
+                    <xdr:colOff>365760</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8742,18 +8783,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId65" name="Check Box 63">
+            <control shapeId="1087" r:id="rId66" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>66</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>67</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8764,20 +8805,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1088" r:id="rId66" name="Check Box 64">
+            <control shapeId="1088" r:id="rId67" name="Check Box 64">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
-                    <xdr:row>70</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>556260</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8786,18 +8827,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1089" r:id="rId67" name="Check Box 65">
+            <control shapeId="1089" r:id="rId68" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8808,18 +8849,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1090" r:id="rId68" name="Check Box 66">
+            <control shapeId="1090" r:id="rId69" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>357188</xdr:colOff>
+                    <xdr:colOff>358140</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>557213</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
